--- a/ig/ANS-006-115-#150-#67/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/ig/ANS-006-115-#150-#67/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T14:06:26+00:00</t>
+    <t>2024-03-25T16:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ANS-006-115-#150-#67/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/ig/ANS-006-115-#150-#67/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:25:35+00:00</t>
+    <t>2024-03-26T08:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ANS-006-115-#150-#67/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/ig/ANS-006-115-#150-#67/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:08:49+00:00</t>
+    <t>2024-03-26T08:51:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
